--- a/Compare the SMT and MILP for Job shop scheduling/Results.xlsx
+++ b/Compare the SMT and MILP for Job shop scheduling/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOHAMMAD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scheduling\SMT Solver\job shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>MOHAMMAD</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t>MOHAMMAD:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 number of jobs-number of total operations-number of machine
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t>MOHAMMAD:</t>
         </r>
@@ -71,14 +71,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (final solution-minimum obtained solution)/minimum obtained solution</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t>MOHAMMAD:</t>
         </r>
@@ -95,14 +95,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (final solution-minimum obtained solution)/minimum obtained solution</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t>MOHAMMAD:</t>
         </r>
@@ -119,14 +119,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (final solution-minimum obtained solution)/minimum obtained solution</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t>MOHAMMAD:</t>
         </r>
@@ -143,7 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="238"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (final solution-minimum obtained solution)/minimum obtained solution</t>
@@ -155,10 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
-  <si>
-    <t>Gams</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t xml:space="preserve">IBM Cplex </t>
   </si>
@@ -169,12 +166,6 @@
     <t>SMT(Z3)</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
     <t>Time (s)</t>
   </si>
   <si>
@@ -203,6 +194,21 @@
   </si>
   <si>
     <t>j20-o300-m15</t>
+  </si>
+  <si>
+    <t>GAMS</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function = sum of the jobs complition time</t>
+  </si>
+  <si>
+    <t>Gap% = (final solution-minimum obtained solution)/minimum obtained solution</t>
+  </si>
+  <si>
+    <t>Sample = j(Number of jobs) - o(Number of total operations) - m(Number of machine)</t>
   </si>
 </sst>
 </file>
@@ -230,14 +236,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -498,18 +504,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,9 +522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,21 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,13 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +577,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,361 +886,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="25"/>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>265</v>
+      </c>
+      <c r="E4" s="17">
+        <f>(D4-MIN($D4,$G4,$J4,$M4))/MIN($D4,$G4,$J4,$M4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="6">
+        <v>265</v>
+      </c>
+      <c r="H4" s="18">
+        <f>(G4-MIN($D4,$G4,$J4,$M4))/MIN($D4,$G4,$J4,$M4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="J4" s="3">
+        <v>265</v>
+      </c>
+      <c r="K4" s="17">
+        <f>(J4-MIN($D4,$G4,$J4,$M4))/MIN($D4,$G4,$J4,$M4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="6">
+        <v>265</v>
+      </c>
+      <c r="N4" s="16">
+        <f>(M4-MIN($D4,$G4,$J4,$M4))/MIN($D4,$G4,$J4,$M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>462</v>
+      </c>
+      <c r="D5" s="3">
+        <v>534</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E9" si="0">(D5-MIN($D5,$G5,$J5,$M5))/MIN($D5,$G5,$J5,$M5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6">
+        <v>534</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H9" si="1">(G5-MIN($D5,$G5,$J5,$M5))/MIN($D5,$G5,$J5,$M5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>534</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" ref="K5:K9" si="2">(J5-MIN($D5,$G5,$J5,$M5))/MIN($D5,$G5,$J5,$M5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1107</v>
+      </c>
+      <c r="M5" s="6">
+        <v>534</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" ref="N5:N9" si="3">(M5-MIN($D5,$G5,$J5,$M5))/MIN($D5,$G5,$J5,$M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="17">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>265</v>
-      </c>
-      <c r="D4" s="26">
-        <f>(C4-MIN($C4,$F4,$I4,$L4))/MIN($C4,$F4,$I4,$L4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.44</v>
-      </c>
-      <c r="F4" s="8">
-        <v>265</v>
-      </c>
-      <c r="G4" s="27">
-        <f>(F4-MIN($C4,$F4,$I4,$L4))/MIN($C4,$F4,$I4,$L4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="I4" s="4">
-        <v>265</v>
-      </c>
-      <c r="J4" s="26">
-        <f>(I4-MIN($C4,$F4,$I4,$L4))/MIN($C4,$F4,$I4,$L4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="L4" s="8">
-        <v>265</v>
-      </c>
-      <c r="M4" s="25">
-        <f>(L4-MIN($C4,$F4,$I4,$L4))/MIN($C4,$F4,$I4,$L4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17">
-        <v>462</v>
-      </c>
-      <c r="C5" s="4">
-        <v>534</v>
-      </c>
-      <c r="D5" s="26">
-        <f t="shared" ref="D5:D9" si="0">(C5-MIN($C5,$F5,$I5,$L5))/MIN($C5,$F5,$I5,$L5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>63</v>
-      </c>
-      <c r="F5" s="8">
-        <v>534</v>
-      </c>
-      <c r="G5" s="27">
-        <f t="shared" ref="G5:G9" si="1">(F5-MIN($C5,$F5,$I5,$L5))/MIN($C5,$F5,$I5,$L5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
-      </c>
-      <c r="I5" s="4">
-        <v>534</v>
-      </c>
-      <c r="J5" s="26">
-        <f t="shared" ref="J5:J9" si="2">(I5-MIN($C5,$F5,$I5,$L5))/MIN($C5,$F5,$I5,$L5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
-        <v>1107</v>
-      </c>
-      <c r="L5" s="8">
-        <v>534</v>
-      </c>
-      <c r="M5" s="25">
-        <f t="shared" ref="M5:M9" si="3">(L5-MIN($C5,$F5,$I5,$L5))/MIN($C5,$F5,$I5,$L5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
         <v>803</v>
       </c>
-      <c r="D6" s="26">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="F6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <v>803</v>
       </c>
-      <c r="G6" s="27">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
         <v>803</v>
       </c>
-      <c r="J6" s="26">
+      <c r="K6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="L6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6">
         <v>829</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N6" s="16">
         <f t="shared" si="3"/>
         <v>3.2378580323785801E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <v>1068</v>
       </c>
-      <c r="D7" s="26">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="F7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
         <v>1068</v>
       </c>
-      <c r="G7" s="27">
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
         <v>1072</v>
       </c>
-      <c r="J7" s="26">
+      <c r="K7" s="17">
         <f t="shared" si="2"/>
         <v>3.7453183520599251E-3</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="L7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6">
         <v>1085</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="16">
         <f t="shared" si="3"/>
         <v>1.5917602996254682E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
         <v>1602</v>
       </c>
-      <c r="D8" s="26">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
         <v>1623</v>
       </c>
-      <c r="G8" s="27">
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
         <v>1.3108614232209739E-2</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>1606</v>
       </c>
-      <c r="J8" s="26">
+      <c r="K8" s="17">
         <f t="shared" si="2"/>
         <v>2.4968789013732834E-3</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="L8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6">
         <v>1850</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="16">
         <f t="shared" si="3"/>
         <v>0.15480649188514356</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
         <v>2503</v>
       </c>
-      <c r="D9" s="28">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="F9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
         <v>2590</v>
       </c>
-      <c r="G9" s="29">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>3.4758290051937674E-2</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
         <v>2867</v>
       </c>
-      <c r="J9" s="28">
+      <c r="K9" s="19">
         <f t="shared" si="2"/>
         <v>0.14542548941270475</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="L9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="7">
         <v>3200</v>
       </c>
-      <c r="M9" s="30">
+      <c r="N9" s="21">
         <f t="shared" si="3"/>
         <v>0.27846584099081101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Compare the SMT and MILP for Job shop scheduling/Results.xlsx
+++ b/Compare the SMT and MILP for Job shop scheduling/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scheduling\SMT Solver\job shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scheduling\GitHub\LSP_SMT_Machine_learning\Compare the SMT and MILP for Job shop scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,13 +202,13 @@
     <t>objective function</t>
   </si>
   <si>
-    <t>objective function = sum of the jobs complition time</t>
-  </si>
-  <si>
     <t>Gap% = (final solution-minimum obtained solution)/minimum obtained solution</t>
   </si>
   <si>
     <t>Sample = j(Number of jobs) - o(Number of total operations) - m(Number of machine)</t>
+  </si>
+  <si>
+    <t>objective function = sum of the jobs completion time</t>
   </si>
 </sst>
 </file>
@@ -571,33 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -605,6 +578,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +889,7 @@
   <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,36 +902,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="26" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -940,7 +940,7 @@
       <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -949,7 +949,7 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -958,7 +958,7 @@
       <c r="L3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="8" t="s">
@@ -1236,18 +1236,18 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
-        <v>15</v>
+      <c r="B11" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
-        <v>17</v>
+      <c r="B12" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
-        <v>16</v>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
